--- a/data/outputs/management_elsevier/90.xlsx
+++ b/data/outputs/management_elsevier/90.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS64"/>
+  <dimension ref="A1:BU64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -931,6 +941,12 @@
           <t>2-s2.0-84942757731</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>577</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1148,6 +1164,12 @@
           <t>2-s2.0-84943390471</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>688</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1365,6 +1387,12 @@
           <t>2-s2.0-84943524215</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>1115</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1574,6 +1602,12 @@
           <t>2-s2.0-84945588488</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>3019</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1783,6 +1817,12 @@
           <t>2-s2.0-84946839989</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>739</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2000,6 +2040,12 @@
           <t>2-s2.0-84958641882</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>781</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2209,6 +2255,12 @@
           <t>2-s2.0-84958644602</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>544</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2426,6 +2478,12 @@
           <t>2-s2.0-84958674929</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>3964</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2635,6 +2693,12 @@
           <t>2-s2.0-84942512948</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>1218</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2853,6 +2917,12 @@
         <is>
           <t>2-s2.0-84939524734</t>
         </is>
+      </c>
+      <c r="BT11" t="n">
+        <v>949</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -3067,6 +3137,12 @@
           <t>2-s2.0-84961313344</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>1374</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3288,6 +3364,12 @@
           <t>2-s2.0-84956505804</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>1862</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3504,6 +3586,12 @@
         <is>
           <t>2-s2.0-84956535466</t>
         </is>
+      </c>
+      <c r="BT14" t="n">
+        <v>1023</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -3718,6 +3806,12 @@
           <t>2-s2.0-84955682404</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>2265</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3929,6 +4023,12 @@
           <t>2-s2.0-84955668705</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>2529</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4143,6 +4243,12 @@
         <is>
           <t>2-s2.0-84943567187</t>
         </is>
+      </c>
+      <c r="BT17" t="n">
+        <v>2699</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -4357,6 +4463,12 @@
           <t>2-s2.0-84955732819</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>2824</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4582,6 +4694,12 @@
           <t>2-s2.0-84927138918</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>2843</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4803,6 +4921,12 @@
           <t>2-s2.0-84955717846</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>2057</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5019,6 +5143,12 @@
         <is>
           <t>2-s2.0-84930800167</t>
         </is>
+      </c>
+      <c r="BT21" t="n">
+        <v>3022</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -5237,6 +5367,12 @@
           <t>2-s2.0-84936940171</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>2148</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5444,6 +5580,12 @@
           <t>2-s2.0-84928332367</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>750</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5651,6 +5793,12 @@
           <t>2-s2.0-84928681117</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>1183</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5862,6 +6010,12 @@
           <t>2-s2.0-84946178677</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>1651</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6077,6 +6231,12 @@
           <t>2-s2.0-84929093964</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>1034</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6284,6 +6444,12 @@
           <t>2-s2.0-84929158782</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>724</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6501,6 +6667,12 @@
           <t>2-s2.0-84930201600</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>965</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6718,6 +6890,12 @@
           <t>2-s2.0-84931261075</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>1743</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6925,6 +7103,12 @@
           <t>2-s2.0-84931267997</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>1049</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7142,6 +7326,12 @@
           <t>2-s2.0-84928684055</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>1882</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7359,6 +7549,12 @@
           <t>2-s2.0-84931260564</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>1899</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7578,6 +7774,12 @@
           <t>2-s2.0-84939935640</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>2234</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7798,6 +8000,12 @@
         <is>
           <t>2-s2.0-84937763692</t>
         </is>
+      </c>
+      <c r="BT34" t="n">
+        <v>1091</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -8012,6 +8220,12 @@
           <t>2-s2.0-84939972817</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>1365</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8233,6 +8447,12 @@
           <t>2-s2.0-84937762391</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>1965</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8456,6 +8676,12 @@
           <t>2-s2.0-84937760915</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>758</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8677,6 +8903,12 @@
           <t>2-s2.0-84937763189</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>2449</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8900,6 +9132,12 @@
           <t>2-s2.0-84937758918</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>2970</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9117,6 +9355,12 @@
           <t>2-s2.0-84937765245</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>793</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9336,6 +9580,12 @@
           <t>2-s2.0-84937763321</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>1125</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9555,6 +9805,12 @@
           <t>2-s2.0-84937764023</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>1245</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9770,6 +10026,12 @@
           <t>2-s2.0-84939954946</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>904</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9988,6 +10250,12 @@
         <is>
           <t>2-s2.0-84939975345</t>
         </is>
+      </c>
+      <c r="BT44" t="n">
+        <v>1680</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -10200,6 +10468,12 @@
           <t>2-s2.0-84937763499</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>3666</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10421,6 +10695,12 @@
           <t>2-s2.0-84924084954</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>3413</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10640,6 +10920,12 @@
           <t>2-s2.0-84924423288</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>1082</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10855,6 +11141,12 @@
           <t>2-s2.0-84925869271</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>2653</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11070,6 +11362,12 @@
           <t>2-s2.0-84924747005</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>737</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11291,6 +11589,12 @@
           <t>2-s2.0-84924674607</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>4086</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11498,6 +11802,12 @@
           <t>2-s2.0-84925280692</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>1667</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11707,6 +12017,12 @@
           <t>2-s2.0-84925321920</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>1337</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11920,6 +12236,12 @@
           <t>2-s2.0-84926442586</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>871</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12134,6 +12456,12 @@
         <is>
           <t>2-s2.0-84939945176</t>
         </is>
+      </c>
+      <c r="BT54" t="n">
+        <v>653</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -12342,6 +12670,12 @@
           <t>2-s2.0-84939937016</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>1689</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12551,6 +12885,12 @@
           <t>2-s2.0-84916607664</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>1875</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12760,6 +13100,12 @@
           <t>2-s2.0-84920645655</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>2817</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12969,6 +13315,12 @@
           <t>2-s2.0-84922106684</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>1663</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13176,6 +13528,12 @@
           <t>2-s2.0-84921782880</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>756</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13392,6 +13750,12 @@
         <is>
           <t>2-s2.0-84921978114</t>
         </is>
+      </c>
+      <c r="BT60" t="n">
+        <v>1490</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="61">
@@ -13598,6 +13962,12 @@
           <t>2-s2.0-84961332433</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>899</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13815,6 +14185,12 @@
           <t>2-s2.0-85027936425</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>1417</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14030,6 +14406,12 @@
           <t>2-s2.0-84921370249</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>1232</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14247,6 +14629,12 @@
           <t>2-s2.0-84921953068</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>3545</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
